--- a/3.results/model_selection/sterne_caugek_2_covariates_blocks.xlsx
+++ b/3.results/model_selection/sterne_caugek_2_covariates_blocks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\OneDrive\Documents\stage_M2\3.results\model_selection\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schroll\Documents\stage_M2\3.results\model_selection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0F78CD-0184-489A-B28F-BD1EC9E508C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA6EFD5-F871-4A11-82DB-C00EC1706633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11111" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="static_covs" sheetId="1" r:id="rId1"/>
@@ -841,9 +841,9 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -908,7 +908,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -973,7 +973,7 @@
         <v>2873.4</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>2564</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>2863</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>2782.4</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
@@ -1233,7 +1233,7 @@
         <v>2549.9</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>2567</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>2548.6</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
@@ -1493,7 +1493,7 @@
         <v>2521.9</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>2543.1999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>2532.8000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>32</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>2556.6999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
@@ -1753,7 +1753,7 @@
         <v>2519.8000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>34</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>2522</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
@@ -1883,7 +1883,7 @@
         <v>2528.6999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>36</v>
       </c>
@@ -2098,9 +2098,9 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2165,7 +2165,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -2230,7 +2230,7 @@
         <v>2864.8</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
@@ -2295,7 +2295,7 @@
         <v>2561.5</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>38</v>
       </c>
@@ -2360,7 +2360,7 @@
         <v>2834.2</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>39</v>
       </c>
@@ -2425,7 +2425,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,7 +2490,7 @@
         <v>2632.7</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>41</v>
       </c>
@@ -2555,7 +2555,7 @@
         <v>2554.6</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>42</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>2487.1</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>43</v>
       </c>
@@ -2685,7 +2685,7 @@
         <v>2590.6999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>44</v>
       </c>
@@ -2750,7 +2750,7 @@
         <v>2562.5</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>45</v>
       </c>
@@ -2815,7 +2815,7 @@
         <v>2643.7</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>46</v>
       </c>
@@ -2880,7 +2880,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>47</v>
       </c>
@@ -2945,7 +2945,7 @@
         <v>2436.6</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>48</v>
       </c>
@@ -3010,7 +3010,7 @@
         <v>2560.5</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>49</v>
       </c>
@@ -3075,7 +3075,7 @@
         <v>2482.1999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>50</v>
       </c>
@@ -3140,7 +3140,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>51</v>
       </c>
@@ -3205,7 +3205,7 @@
         <v>2439.8000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>52</v>
       </c>
@@ -3270,7 +3270,7 @@
         <v>2534.4</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>53</v>
       </c>
@@ -3335,7 +3335,7 @@
         <v>2766.9</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>54</v>
       </c>
@@ -3547,12 +3547,12 @@
   <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3617,7 +3617,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -3682,7 +3682,7 @@
         <v>2876.3</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>55</v>
       </c>
@@ -3747,7 +3747,7 @@
         <v>2426.3000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>56</v>
       </c>
@@ -3812,7 +3812,7 @@
         <v>2863.5</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>57</v>
       </c>
@@ -3877,7 +3877,7 @@
         <v>2725.3</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>58</v>
       </c>
@@ -3942,7 +3942,7 @@
         <v>2436.6</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>59</v>
       </c>
@@ -4007,7 +4007,7 @@
         <v>2413.9</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>60</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>2713.3</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>61</v>
       </c>
